--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABCE/10/seed4/result_data_RandomForest.xlsx
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.956999999999999</v>
+        <v>4.6984</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -581,7 +581,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-21.88470000000001</v>
+        <v>-21.87080000000002</v>
       </c>
       <c r="B9" t="n">
         <v>4.86</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>5.617999999999996</v>
+        <v>5.563599999999996</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.79010000000001</v>
+        <v>16.79680000000001</v>
       </c>
     </row>
     <row r="14">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.21999999999999</v>
+        <v>-13.29289999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.2425</v>
+        <v>16.3332</v>
       </c>
     </row>
     <row r="17">
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.04630000000002</v>
+        <v>-22.02270000000001</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-19.29969999999999</v>
+        <v>-19.2933</v>
       </c>
       <c r="B20" t="n">
         <v>10.19</v>
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.11339999999998</v>
+        <v>16.17079999999999</v>
       </c>
     </row>
     <row r="21">
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>16.4459</v>
+        <v>16.399</v>
       </c>
     </row>
     <row r="25">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>4.113000000000005</v>
+        <v>4.286800000000003</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -887,10 +887,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-21.54269999999997</v>
+        <v>-21.58549999999996</v>
       </c>
       <c r="B27" t="n">
-        <v>5.409400000000006</v>
+        <v>5.178400000000003</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.858699999999996</v>
+        <v>4.840399999999998</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.927800000000005</v>
+        <v>8.859500000000004</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1077,10 +1077,10 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>4.948600000000004</v>
+        <v>4.903700000000003</v>
       </c>
       <c r="C38" t="n">
-        <v>-11.8102</v>
+        <v>-12.3781</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.0209</v>
+        <v>15.92929999999999</v>
       </c>
     </row>
     <row r="40">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-13.03839999999999</v>
+        <v>-13.44909999999999</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.4746</v>
+        <v>17.5083</v>
       </c>
     </row>
     <row r="49">
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.292800000000001</v>
+        <v>6.017800000000005</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.3639</v>
+        <v>-12.1422</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>17.1739</v>
+        <v>17.143</v>
       </c>
     </row>
     <row r="53">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.858899999999998</v>
+        <v>4.919299999999998</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.49980000000001</v>
+        <v>16.536</v>
       </c>
     </row>
     <row r="57">
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.2929</v>
+        <v>-13.62779999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1505,7 +1505,7 @@
         <v>4.39</v>
       </c>
       <c r="C63" t="n">
-        <v>-11.6707</v>
+        <v>-11.9095</v>
       </c>
       <c r="D63" t="n">
         <v>-7.14</v>
@@ -1601,10 +1601,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.7016</v>
+        <v>-21.65199999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>5.581299999999995</v>
+        <v>5.497399999999995</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1621,10 +1621,10 @@
         <v>-21.91</v>
       </c>
       <c r="B70" t="n">
-        <v>5.687000000000004</v>
+        <v>5.656400000000004</v>
       </c>
       <c r="C70" t="n">
-        <v>-11.41</v>
+        <v>-11.8828</v>
       </c>
       <c r="D70" t="n">
         <v>-7.03</v>
@@ -1720,7 +1720,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-19.59169999999998</v>
+        <v>-19.60609999999999</v>
       </c>
       <c r="B76" t="n">
         <v>9.23</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-21.8255</v>
+        <v>-21.82450000000001</v>
       </c>
       <c r="B82" t="n">
         <v>5.26</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>6.538700000000002</v>
+        <v>5.940999999999998</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.5998</v>
+        <v>16.65669999999999</v>
       </c>
     </row>
     <row r="85">
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.3427</v>
+        <v>-12.4213</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.2772</v>
+        <v>16.3843</v>
       </c>
     </row>
     <row r="101">
@@ -2157,7 +2157,7 @@
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.76810000000001</v>
+        <v>16.79570000000001</v>
       </c>
     </row>
     <row r="102">
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>8.526200000000006</v>
+        <v>8.437600000000005</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
